--- a/biology/Zoologie/Elephantimorpha/Elephantimorpha.xlsx
+++ b/biology/Zoologie/Elephantimorpha/Elephantimorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Elephantimorpha (éléphantimorphes en français) sont un clade de mammifères proboscidiens regroupant les éléphants (Elephantidae) et des familles disparues.
 </t>
@@ -511,9 +523,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007)[2], les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012[3], et les caractéristiques génétiques selon Meyer et al. 2017[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007), les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012, et les caractéristiques génétiques selon Meyer et al. 2017 :
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des familles d'après Shoshani et al. (2004)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des familles d'après Shoshani et al. (2004) :
 clade Elephantida Tassy and Shoshani, 1997 :
 super-famille Elephantoidea Gray, 1821 :
 Elephantidae Gray, 1821 (la famille actuelle des éléphants)
